--- a/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. We call to order this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee.    This afternoon we will hear testimony, expert testimony, on the topic not thought to be, but in reality of great concern and importance, the threat of Islamic extremism inside Russia and what that might mean to the United States and global security.    The fight against violent, radical Islam is one of the major challenges of our time. Islamic terrorists have targeted numerous countries for attack, including the United States and Russia. They have declared war on the modern civilized world. Their barbaric actions in Syria remind us daily of their depravity. They must be stopped and they must be defeated. The future of America, Russia, and, yes, of Western civilization, depends on that. The lives of millions will be in jeopardy if we don't do what is right today.    Given the global nature of this fight, it is in the interests of our national interests to understand the growth of extremism in other parts of the world and in other countries, such as Russia. It is alarming to read reports of Muslims living in peaceful and in free democratic countries being attracted or recruited into radical Islamic terrorism. This frightening reality is happening in Europe and elsewhere. Media reports indicate that over 2,000 Russian-born fighters may have traveled to the Middle East to join ISIL. Our collective inability to stem this tide is both shocking and unnerving.    This afternoon, I look forward to hearing from all of our witnesses. I know Dr. Aron we are pleased to welcome back as a witness, has some unique insights regarding the spread of extremism into Muslim populations inside Russia. We don't normally associate this behavior with such Russian ethnic groups, like the Tatars or others, but we need to know what those details are. We will learn more about this and other things in your testimony.    And also, in the aftermath of the Boston bombing in May 2013, I led a congressional delegation to Russia where we met with Russian Government and intelligence officials and discussed the threat of terrorism and how our governments could potentially cooperate. I have been disappointed that, due to the upheaval in Ukraine, more has not been achieved in implementing cooperation in this area.    Of course, extremist forces continue to plot attacks against both the United States and Russia. It seems plain to me that if we work together we will be better able to protect our people, stop attacks, and kill violent terrorists--something I am personally in favor of as a matter of policy.    Please let me note our discussion today about Russia and the question of finding possible areas of cooperation in no way downplays or overlooks the disappointing situation in Ukraine. As a result, our government has imposed sanctions on Russian officials and institutions. Even with that millstone around our necks, our two governments still manage to achieve an admirable level of cooperation in other areas, like the International Space Station, for example. Perhaps our governments might also make a joint effort to stop the spread of Islamic extremism and the terrorism that flows from it.    Without objection, all members will have 5 legislative days to submit written questions or extraneous materials for the record.    And I will introduce the witnesses after opening statements from Mr. Sires and our colleagues.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding today's timely hearing on Russia and the Islamic extremists.    Since coming into power 15 years ago, Vladimir Putin has been committed to restoring Russia as a great power, shaping his policy to position Russia as a counterweight to the United States. We saw Putin flex his muscles in the annexation of Crimea last year and the subsequent fighting in Ukraine. Now Russia has shifted its attention to increased support for the Assad regime and an increased role in the Syrian conflict.    At the U.N. this week, Putin continued his talk of the importance of mounting a broad effort to support Assad as the only way to fight against the spread of the Islamic State. Russia's plan to combat Islamic extremists through the support of Assad and to strengthen its military presence in Syria directly contradicts with the U.S. diplomatic goals to have Assad transition out of power.    It is unclear whether Putin's motives in Syria and the Middle East are self-serving or stem from the growing concern over a large number of jihadist fighters from the North Caucasus fighting in Syria who could pose a serious problem for Moscow should they return to Russia.    Given that the U.S. and Russia are at a critical crossroads in conversations on how to best combat Islamic extremists, I look forward to hearing from our esteemed panel of witnesses on the possible outcomes and solutions to the current challenges.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Yeah. Welcome. Let's go.</t>
   </si>
   <si>
@@ -85,19 +76,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Aron</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aron. Thank you very much, Mr. Chairman, Ranking Member, members of the committee.    On the morning of July 19, 2012, gunshots and car bombs explosion woke up Kazan, the capital of Tatarstan, Russia's largest autonomous republic and the home of its largest Muslim ethnicity, the Tatars. The shots hit Valiulla Yakupov, Deputy Mufti of Tatarstan, in charge of education in Islamic studies. The bomb went off under the car of the Chief Mufti of Tatarstan, Ildus Fayzov. Fayzov was badly injured. Yakupov was killed.    Appointed only a year before, both men were moderate clerics, determined to oppose what they saw as the encroachment of fundamentalism, Salafism in Tatarstan, and to strengthen the traditional moderate Hanafi madhab, which is one of the five major branches of Sunni Islam. Lest anyone miss the terrorists' point, a cavalcade of cars, under the black-and-white banners of global jihadists, raced through downtown Kazan shortly after the attack.    I think the July 19 attack, in retrospect, could be viewed as a watershed. Two decades after the first Chechen war, the Russian jihad may be reaching a tipping point at which the center of gravity of militant Islamic fundamentalism is shifting from North Caucasus to the more urban and densely populated European Russian heartland, the home of 13 million Muslims, especially Tatars and Bashkirs, Russia's second-largest Muslim group, that are very close to Tatars both ethnically and geographically. If this trend continues, the consequences for the largest Muslim country in Europe, and Russia has an estimated Muslim population of 20 million, could be ominous.    Let me mention five underlying factors, all of which continue to operate today as risk factors that increase the likelihood of terrorist attacks in Russia and heighten Russia's vulnerability to such attack.    Number one, Russia has not been able to evade the pan-European phenomenon. That is the turn to radical Islam of a fraction of seemingly assimilated and integrated European Muslim population, especially its young people.    Two, the exposure after the fall of the Soviet Union of an estimated tens of thousands of Russian Muslims to Salafism and Wahhabism in the course of theological studies in the Middle East. In their return to Tatarstan and Bashkortostan, some of the newly minted imams have increasingly turned away from the traditional, moderate Hanafi madhab and toward Salafism and Wahhabism. According to Russian experts, imams that share Wahhabi views preach at dozens of the over 1,000 mosques in Tatarstan.    Three, Russia is now home to millions of guest workers, Muslims from Central Asia: An estimated 2 million Uzbeks, between 1 and 2 million Tajiks, and around 1 million Kyrgyz. There are an estimated 2\\1/2\\ million of only registered migrants from Central Asian Moscow alone, making the Russian capital the largest Muslim city in Europe.    Often without work permits, marginalized culturally and ethically, and often subjected to abuse, extortion, and not infrequently to racist violence, many of the men, understandably, turn to their faith and the faith of their grandparents as a means to sustain their dignity. Unfortunately, as reported in the Russian media, at least some fall under the influence of radical clerics and, more importantly and recently, recruiters from ISIS.    According to the reports in the Russian media, most, if not all ISIS fighters from Central Asia have been recruited at the construction sites in Russia, especially Moscow, including an estimated 400 ethnic Uzbeks fighting with ISIS in Syria. All of them were recruited outside of Uzbekistan, including their reported leader, Nusrat Nazarov.    Number four, given the permeability of borders, the recruitment, and the proselytizing effort that has been doubled and tripled by ISIS in Central Asia, especially Uzbekistan, Kyrgyzstan, and Tajikistan, given the flow of people, such efforts are likely to result in the increasing radicalization of the elements of the Central Asian diaspora in Russia. If you add to this the fact that, with Russia on the ground now in Syria, adding to other risks of Putin's decision is also the fact that the probability of retaliatory terrorist strikes inside Russia are increasing.    The final point, the Secretary of the Russian Security Council, Nikolai Patrushev, said that, at the moment, Russian authorities do not have the means to stem the flow of volunteers to ISIS. The Russian Foreign Ministry estimates that there are around 2,400 Russian speakers among the jihadists in Syria, while the total Russian nationals and those from the former Soviet Union in the ranks of ISIS could be as high as 5,000. Today, Russian is the third-most popular ISIS language after Arabic and English.    How long will it be before the veterans of ISIS, coming back to Russia, decide to join a fight for a Russian caliphate inside Russia?    Mr. Chairman, let me conclude on this. Like overwhelming majorities of Muslims everywhere, most Russian Muslims and the migrants from Central Asia practice their religion peacefully, abhor violence, and are good citizens and patriots of their countries. Yet, as we have learned only too well in the 14 years since 9/11, the radicalization of even a small minority, not registered by any public opinion polls, can inflict incalculable damage and cost thousands of lives.    If the evidence that I outlined today does not amount to a significant increase in national and international terrorism, I will be the first to acknowledge and celebrate my error. But having largely missed the rise of Chechen terrorism, al-Qaeda, and ISIS, we would be far better off wrong than sorry.    Thank you very much.</t>
   </si>
   <si>
-    <t>Saradzhyan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Saradzhyan. Mr. Chairman and distinguished members of the committee, thank you for inviting me to participate in what I believe is a very important event.    I will present my view on prospects for U.S.-Russian cooperation in countering terrorism, and I will start with an observation made by Winston Churchill, who is often quoted saying that Russia is a riddle wrapped in a mystery inside an enigma. Fewer, though, remember the remainder of that saying, which is that perhaps there is a key, and that key is Russia's national interest when it comes to discerning Russian actions.    There is no strategic document, Russian strategic document or statement that would offer a hierarchy of vital national interests, but I have taken liberty to distill some of the statements to build such a hierarchy in the statement that you have. Of these interests, at least three of seven vital national interests to Russia, at least three are affected by the political violence in the Middle East. And of these three interests, which are prevent insurgencies in Russia, in areas adjacent to Russia; prevent large-scale terrorist attacks on Russia and its allies; and prevent the proliferation of weapons of mass destruction, particularly nuclear weapons, to countries and also nonstate actors, at least two of those interests converge with U.S. vital national interests as formulated by the Commission on America's National Interests in 2000 and subsequent projects.    So, therefore, both countries share an interest in ensuring that the dual threat that emanates from the Middle East insurgency there is contained, and that comes to countering the rise of ISIS, continuing to dismantle or keep al-Qaeda on the run, as well as denying these and other terrorist organizations any access to weapons of mass destruction, and particularly to nuclear weapons.    I should note that, even though there are 30,000 recruits, reportedly, from foreign countries in ISIL and at least 4,500 of them are estimated to have come from the West, Russia and its allies are more exposed to the threat posed by ISIS, if only because of the proximity. And, as Dr. Aron has pointed out, there are various estimates.    The latest estimates have come from the Federal Security Service, and it is that 2,400 Russian nationals are in ISIS, and about 3,000 nationals of Central Asian republics are also in ISIS. That is a potent force.    We shouldn't also discount al-Qaeda's al-Nusrah Front, which has its own unit that consists of natives of Russia's North Caucasus, but also the republics of Central Asia, and that unit counts about 1,500.    So imagine what would happen if all these individuals come home, whether because ISIL prevails or whether because ISIL is defeated, but these individuals are not apprehended or eliminated.    I should note that both organizations, ISIL and al-Qaeda, have maintained ties with the insurgents and terrorist networks in the North Caucasus. This summer saw ISIS establish a vilayat, a sort of province in the North Caucasus; and the Emirate Caucasus, the umbrella terrorist organization, operates in the North Caucasus, has had longstanding ties with al-Qaeda, and its leaders have praised Ayman al-Zawahiri as their leader.    So no surprise that Russian officials, including Foreign Minister Lavrov and Secretary of the Security Council Patrushev, have described ISIS as the main threat to Russia and the main threat to global security, respectively. On the U.S. side, there is less agreement on whether ISIS represents a top threat, but I think the FBI Director has been quoted as saying that it is a top threat to U.S. national security.    So since neither the United States nor Russia can tolerate the further existence of a quasi-state in the form of ISIS in the Middle East, and both countries need to counter al-Qaeda and keep it on the run and reduce its possibilities, I would argue there is definitely ground for potential cooperation.    Now, that is impeded by different approaches toward Syria, although I believe--and Russian officials have said officially--that Russia is not married to Assad. So I think in the longer term there is an opportunity for a transition to a coalition government that would represent Assad's key constituencies--Alawites, Kurds, and also moderate sections of the Syrian opposition.    For now, the U.S.-Russian cooperation can be, though, limited to fighting ISIL in Iraq, and that could include joint operations, which is something U.S. and Russian special forces have done on a very low scale in Afghanistan. It could include providing more arms and more training to the Iraqi Armed Forces and the Kurds fighting ISIL, and it could, of course, include disrupting financing, which is not a counterterrorism tactic per se, but is an important element of countering such organizations.    But even looking beyond that, countering terrorism with force alone would not suffice. So there are certain root causes and contributing factors that I am not going to list, but are in the statement, that both Russia and the United States need to address as they think how to defeat terrorists not only in the Middle East, or containment, but also in their own countries.    Of the deep-rooted and structural causes, I would point out relative socioeconomic deprivation, historical grievances, poor quality of governance, and political instability are factors that facilitate this violence. I would point out the spread of violent ideologies and, primarily, the militant form of Salafia, or so-called ``Wahhabism,'' as Dagestani officials call it.    And finally, the third group of causes, motivational causes I would point out are the abuses of the population. If there is anything that creates grievances, it is the abuses of the population at the hands of authorities.    So let me conclude by saying that cooperation between the United States and Russia against terrorism in general, and ISIS and al-Qaeda in particular, will not only significantly advance international efforts to contain these organizations' expansion within and without Iraq and adjacent countries, but it can also help to stop the slide toward a new Cold War between the West and Russia in the wake of the Ukraine crisis, although these factors are not exactly--there is no avoiding it. I mean, the Ukrainian crisis will have to be resolved regardless, but that cooperation--let me repeat--will help to stop the slide toward a new Cold War.    Thank you.</t>
-  </si>
-  <si>
-    <t>Katz</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katz. Mr. Chairman, distinguished members, thank you so much for the invitation to speak to you today. I would like to address the Syrian aspect of this issue.    Unlike in Ukraine, where Moscow has openly declared that its motive for intervention and support for separatist forces is being undertaken to counter the West, Russian officials have characterized their support for the Assad regime in Syria as actually being in Western interests--even if Western governments do not quite seem to understand this--since it serves the common goal of combating the Islamic State.    Russian President Vladimir Putin recently described the Assad regime as an important ally in the fight against the Islamic State. ``It is evident,'' he stated recently, ``that without an active participation of the Syrian authorities and military, without participation of the Syrian army inside the territory, as the military say, in the fight against Islamic State, terrorists cannot be expelled from that country and from the region on the whole.''    Russian Foreign Minister Sergey Lavrov described the Assad regime as a crucial ally against Islamic State. He declared that, ``The Syrian President is the commander in chief of probably the most capable ground force fighting terrorism. To give up such an opportunity, ignore the capabilities of the Syrian army as a partner and ally in the fight against the Islamic State, means to sacrifice the entire region's security to some geopolitical moods and calculations.''    Now, while the West may not like Assad, Russian officials and commentators are saying his authoritarian regime is preferable to an even worse one that Islamic State would establish that would pose a real threat to Western, as well as Russian interests. Furthermore, Assad regime forces are needed in order to stop Islamic State from taking over more or even the rest of Syria. Western insistence that Assad must step down, then, is foolish since this would gravely weaken the forces fighting against Islamic State. The West, then, should work with Moscow and the Assad regime against the common threat and not against them.    This argument is based on the premise that the Assad regime is actively fighting against Islamic State. There have been numerous reports, though, that the Assad regime and the Islamic State have actually not been fighting with each other or not doing so very much. A widely quoted study by IHS Jane's Terrorism and Insurgency Center at the end of last year noted that the Assad regime's ``counterterrorism operations . . . skew heavily toward groups whose names aren't ISIS. Of 982 counterterrorism operations for the year, up through November 21, 2014, just 6 percent directly targeted ISIS.''    In February of this year, TIME magazine reported on a Sunni businessman with close ties to the Assad regime describing various forms of actual cooperation between the Assad regime and the Islamic State, including how the Assad regime buys oil from Islamic State-controlled oil facilities, how Syria's two main mobile phone operators provide service and send repair teams to IS-controlled areas, and how Damascus allows food shipment to the IS capital, Raqqa.    At the beginning of June 2015, U.S. Embassy Damascus accused the Syrian Government of providing air support to an advance by Islamic State militants against other opposition groups north of Aleppo.    In July, Turkish intelligence sources claimed that ``an agreement was made between the Assad regime and Islamic State to destroy the Free Syrian Army in the country's north.''    Now, why would the Assad regime not fight against the Islamic State and even cooperate with it? Both of them have an interest in weakening their common foes--other Syrian opposition groups being supported by Turkey, Saudi Arabia, Qatar, and others.    Moscow and Damascus, of course, vehemently deny that the Assad regime and the Islamic State are not fighting each other and are even cooperating against their common foes. The numerous reports that this is what is happening, as well as the compelling nature of the ``enemy of my enemy is my friend'' logic at work here, though, point to their credibility. And if these reports are true, then certain implications follow.    If Assad and the Islamic State are not really fighting each other, but the Assad regime is losing ground, then its weakening is due primarily to the non-Islamic State forces backed by Turkey and the Gulf Arabs.    Russian military support to the Assad regime is likely to be used primarily against those forces that are most threatening to Damascus--i.e., the Free Syrian Army, the al-Nusrah Front, and all of the others--and not against the Islamic State, which is less threatening to it.    Russian calls for the West to work with Moscow and Damascus in the fight against the Islamic State, then, are really intended to elicit Western acquiescence to increased Russian support for Assad regime efforts to combat its more threatening non-Islamic State opponents as well as to divide Western governments that fear the Islamic State more than the Assad regime, on the one hand, from Turkey and the Gulf Arab states, which are more focused on supporting the downfall of the Assad regime through supporting its non-Islamic State opponents on the other.    What all this suggests is that the recent increase in Russian military involvement in Syria is motivated much less by a desire to combat the Islamic State than by the desire to protect the Assad regime against its more active non-Islamic State opponents as well as to blunt the actions of Western and Middle Eastern actors aimed at supporting them.    Thank you.</t>
@@ -724,11 +706,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -748,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -776,11 +754,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -800,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -828,11 +802,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -852,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -878,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -904,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -932,11 +898,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -956,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -984,11 +946,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1008,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1036,11 +994,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1062,11 +1018,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1086,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1114,11 +1066,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1138,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1166,11 +1114,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1190,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1218,11 +1162,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1242,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1270,11 +1210,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1294,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1322,11 +1258,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1346,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1374,11 +1306,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1398,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1426,11 +1354,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1450,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1478,11 +1402,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1502,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1530,11 +1450,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1554,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1582,11 +1498,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1606,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1634,11 +1546,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1658,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1686,11 +1594,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1710,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1736,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1762,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1788,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1814,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1840,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1866,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1892,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1918,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1944,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1970,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1996,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2022,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2048,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2074,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2100,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2126,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2152,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2178,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2204,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2230,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2258,11 +2122,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2282,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2310,11 +2170,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2334,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2362,11 +2218,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2386,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2414,11 +2266,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2438,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2464,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2492,11 +2338,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2516,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2542,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2568,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2594,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2620,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2646,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2672,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2698,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2726,11 +2554,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2750,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2778,11 +2602,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2802,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2830,11 +2650,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2854,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2882,11 +2698,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. We call to order this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee.    This afternoon we will hear testimony, expert testimony, on the topic not thought to be, but in reality of great concern and importance, the threat of Islamic extremism inside Russia and what that might mean to the United States and global security.    The fight against violent, radical Islam is one of the major challenges of our time. Islamic terrorists have targeted numerous countries for attack, including the United States and Russia. They have declared war on the modern civilized world. Their barbaric actions in Syria remind us daily of their depravity. They must be stopped and they must be defeated. The future of America, Russia, and, yes, of Western civilization, depends on that. The lives of millions will be in jeopardy if we don't do what is right today.    Given the global nature of this fight, it is in the interests of our national interests to understand the growth of extremism in other parts of the world and in other countries, such as Russia. It is alarming to read reports of Muslims living in peaceful and in free democratic countries being attracted or recruited into radical Islamic terrorism. This frightening reality is happening in Europe and elsewhere. Media reports indicate that over 2,000 Russian-born fighters may have traveled to the Middle East to join ISIL. Our collective inability to stem this tide is both shocking and unnerving.    This afternoon, I look forward to hearing from all of our witnesses. I know Dr. Aron we are pleased to welcome back as a witness, has some unique insights regarding the spread of extremism into Muslim populations inside Russia. We don't normally associate this behavior with such Russian ethnic groups, like the Tatars or others, but we need to know what those details are. We will learn more about this and other things in your testimony.    And also, in the aftermath of the Boston bombing in May 2013, I led a congressional delegation to Russia where we met with Russian Government and intelligence officials and discussed the threat of terrorism and how our governments could potentially cooperate. I have been disappointed that, due to the upheaval in Ukraine, more has not been achieved in implementing cooperation in this area.    Of course, extremist forces continue to plot attacks against both the United States and Russia. It seems plain to me that if we work together we will be better able to protect our people, stop attacks, and kill violent terrorists--something I am personally in favor of as a matter of policy.    Please let me note our discussion today about Russia and the question of finding possible areas of cooperation in no way downplays or overlooks the disappointing situation in Ukraine. As a result, our government has imposed sanctions on Russian officials and institutions. Even with that millstone around our necks, our two governments still manage to achieve an admirable level of cooperation in other areas, like the International Space Station, for example. Perhaps our governments might also make a joint effort to stop the spread of Islamic extremism and the terrorism that flows from it.    Without objection, all members will have 5 legislative days to submit written questions or extraneous materials for the record.    And I will introduce the witnesses after opening statements from Mr. Sires and our colleagues.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding today's timely hearing on Russia and the Islamic extremists.    Since coming into power 15 years ago, Vladimir Putin has been committed to restoring Russia as a great power, shaping his policy to position Russia as a counterweight to the United States. We saw Putin flex his muscles in the annexation of Crimea last year and the subsequent fighting in Ukraine. Now Russia has shifted its attention to increased support for the Assad regime and an increased role in the Syrian conflict.    At the U.N. this week, Putin continued his talk of the importance of mounting a broad effort to support Assad as the only way to fight against the spread of the Islamic State. Russia's plan to combat Islamic extremists through the support of Assad and to strengthen its military presence in Syria directly contradicts with the U.S. diplomatic goals to have Assad transition out of power.    It is unclear whether Putin's motives in Syria and the Middle East are self-serving or stem from the growing concern over a large number of jihadist fighters from the North Caucasus fighting in Syria who could pose a serious problem for Moscow should they return to Russia.    Given that the U.S. and Russia are at a critical crossroads in conversations on how to best combat Islamic extremists, I look forward to hearing from our esteemed panel of witnesses on the possible outcomes and solutions to the current challenges.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Yeah. Welcome. Let's go.</t>
   </si>
   <si>
@@ -76,10 +97,19 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Aron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aron. Thank you very much, Mr. Chairman, Ranking Member, members of the committee.    On the morning of July 19, 2012, gunshots and car bombs explosion woke up Kazan, the capital of Tatarstan, Russia's largest autonomous republic and the home of its largest Muslim ethnicity, the Tatars. The shots hit Valiulla Yakupov, Deputy Mufti of Tatarstan, in charge of education in Islamic studies. The bomb went off under the car of the Chief Mufti of Tatarstan, Ildus Fayzov. Fayzov was badly injured. Yakupov was killed.    Appointed only a year before, both men were moderate clerics, determined to oppose what they saw as the encroachment of fundamentalism, Salafism in Tatarstan, and to strengthen the traditional moderate Hanafi madhab, which is one of the five major branches of Sunni Islam. Lest anyone miss the terrorists' point, a cavalcade of cars, under the black-and-white banners of global jihadists, raced through downtown Kazan shortly after the attack.    I think the July 19 attack, in retrospect, could be viewed as a watershed. Two decades after the first Chechen war, the Russian jihad may be reaching a tipping point at which the center of gravity of militant Islamic fundamentalism is shifting from North Caucasus to the more urban and densely populated European Russian heartland, the home of 13 million Muslims, especially Tatars and Bashkirs, Russia's second-largest Muslim group, that are very close to Tatars both ethnically and geographically. If this trend continues, the consequences for the largest Muslim country in Europe, and Russia has an estimated Muslim population of 20 million, could be ominous.    Let me mention five underlying factors, all of which continue to operate today as risk factors that increase the likelihood of terrorist attacks in Russia and heighten Russia's vulnerability to such attack.    Number one, Russia has not been able to evade the pan-European phenomenon. That is the turn to radical Islam of a fraction of seemingly assimilated and integrated European Muslim population, especially its young people.    Two, the exposure after the fall of the Soviet Union of an estimated tens of thousands of Russian Muslims to Salafism and Wahhabism in the course of theological studies in the Middle East. In their return to Tatarstan and Bashkortostan, some of the newly minted imams have increasingly turned away from the traditional, moderate Hanafi madhab and toward Salafism and Wahhabism. According to Russian experts, imams that share Wahhabi views preach at dozens of the over 1,000 mosques in Tatarstan.    Three, Russia is now home to millions of guest workers, Muslims from Central Asia: An estimated 2 million Uzbeks, between 1 and 2 million Tajiks, and around 1 million Kyrgyz. There are an estimated 2\\1/2\\ million of only registered migrants from Central Asian Moscow alone, making the Russian capital the largest Muslim city in Europe.    Often without work permits, marginalized culturally and ethically, and often subjected to abuse, extortion, and not infrequently to racist violence, many of the men, understandably, turn to their faith and the faith of their grandparents as a means to sustain their dignity. Unfortunately, as reported in the Russian media, at least some fall under the influence of radical clerics and, more importantly and recently, recruiters from ISIS.    According to the reports in the Russian media, most, if not all ISIS fighters from Central Asia have been recruited at the construction sites in Russia, especially Moscow, including an estimated 400 ethnic Uzbeks fighting with ISIS in Syria. All of them were recruited outside of Uzbekistan, including their reported leader, Nusrat Nazarov.    Number four, given the permeability of borders, the recruitment, and the proselytizing effort that has been doubled and tripled by ISIS in Central Asia, especially Uzbekistan, Kyrgyzstan, and Tajikistan, given the flow of people, such efforts are likely to result in the increasing radicalization of the elements of the Central Asian diaspora in Russia. If you add to this the fact that, with Russia on the ground now in Syria, adding to other risks of Putin's decision is also the fact that the probability of retaliatory terrorist strikes inside Russia are increasing.    The final point, the Secretary of the Russian Security Council, Nikolai Patrushev, said that, at the moment, Russian authorities do not have the means to stem the flow of volunteers to ISIS. The Russian Foreign Ministry estimates that there are around 2,400 Russian speakers among the jihadists in Syria, while the total Russian nationals and those from the former Soviet Union in the ranks of ISIS could be as high as 5,000. Today, Russian is the third-most popular ISIS language after Arabic and English.    How long will it be before the veterans of ISIS, coming back to Russia, decide to join a fight for a Russian caliphate inside Russia?    Mr. Chairman, let me conclude on this. Like overwhelming majorities of Muslims everywhere, most Russian Muslims and the migrants from Central Asia practice their religion peacefully, abhor violence, and are good citizens and patriots of their countries. Yet, as we have learned only too well in the 14 years since 9/11, the radicalization of even a small minority, not registered by any public opinion polls, can inflict incalculable damage and cost thousands of lives.    If the evidence that I outlined today does not amount to a significant increase in national and international terrorism, I will be the first to acknowledge and celebrate my error. But having largely missed the rise of Chechen terrorism, al-Qaeda, and ISIS, we would be far better off wrong than sorry.    Thank you very much.</t>
   </si>
   <si>
+    <t>Saradzhyan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Saradzhyan. Mr. Chairman and distinguished members of the committee, thank you for inviting me to participate in what I believe is a very important event.    I will present my view on prospects for U.S.-Russian cooperation in countering terrorism, and I will start with an observation made by Winston Churchill, who is often quoted saying that Russia is a riddle wrapped in a mystery inside an enigma. Fewer, though, remember the remainder of that saying, which is that perhaps there is a key, and that key is Russia's national interest when it comes to discerning Russian actions.    There is no strategic document, Russian strategic document or statement that would offer a hierarchy of vital national interests, but I have taken liberty to distill some of the statements to build such a hierarchy in the statement that you have. Of these interests, at least three of seven vital national interests to Russia, at least three are affected by the political violence in the Middle East. And of these three interests, which are prevent insurgencies in Russia, in areas adjacent to Russia; prevent large-scale terrorist attacks on Russia and its allies; and prevent the proliferation of weapons of mass destruction, particularly nuclear weapons, to countries and also nonstate actors, at least two of those interests converge with U.S. vital national interests as formulated by the Commission on America's National Interests in 2000 and subsequent projects.    So, therefore, both countries share an interest in ensuring that the dual threat that emanates from the Middle East insurgency there is contained, and that comes to countering the rise of ISIS, continuing to dismantle or keep al-Qaeda on the run, as well as denying these and other terrorist organizations any access to weapons of mass destruction, and particularly to nuclear weapons.    I should note that, even though there are 30,000 recruits, reportedly, from foreign countries in ISIL and at least 4,500 of them are estimated to have come from the West, Russia and its allies are more exposed to the threat posed by ISIS, if only because of the proximity. And, as Dr. Aron has pointed out, there are various estimates.    The latest estimates have come from the Federal Security Service, and it is that 2,400 Russian nationals are in ISIS, and about 3,000 nationals of Central Asian republics are also in ISIS. That is a potent force.    We shouldn't also discount al-Qaeda's al-Nusrah Front, which has its own unit that consists of natives of Russia's North Caucasus, but also the republics of Central Asia, and that unit counts about 1,500.    So imagine what would happen if all these individuals come home, whether because ISIL prevails or whether because ISIL is defeated, but these individuals are not apprehended or eliminated.    I should note that both organizations, ISIL and al-Qaeda, have maintained ties with the insurgents and terrorist networks in the North Caucasus. This summer saw ISIS establish a vilayat, a sort of province in the North Caucasus; and the Emirate Caucasus, the umbrella terrorist organization, operates in the North Caucasus, has had longstanding ties with al-Qaeda, and its leaders have praised Ayman al-Zawahiri as their leader.    So no surprise that Russian officials, including Foreign Minister Lavrov and Secretary of the Security Council Patrushev, have described ISIS as the main threat to Russia and the main threat to global security, respectively. On the U.S. side, there is less agreement on whether ISIS represents a top threat, but I think the FBI Director has been quoted as saying that it is a top threat to U.S. national security.    So since neither the United States nor Russia can tolerate the further existence of a quasi-state in the form of ISIS in the Middle East, and both countries need to counter al-Qaeda and keep it on the run and reduce its possibilities, I would argue there is definitely ground for potential cooperation.    Now, that is impeded by different approaches toward Syria, although I believe--and Russian officials have said officially--that Russia is not married to Assad. So I think in the longer term there is an opportunity for a transition to a coalition government that would represent Assad's key constituencies--Alawites, Kurds, and also moderate sections of the Syrian opposition.    For now, the U.S.-Russian cooperation can be, though, limited to fighting ISIL in Iraq, and that could include joint operations, which is something U.S. and Russian special forces have done on a very low scale in Afghanistan. It could include providing more arms and more training to the Iraqi Armed Forces and the Kurds fighting ISIL, and it could, of course, include disrupting financing, which is not a counterterrorism tactic per se, but is an important element of countering such organizations.    But even looking beyond that, countering terrorism with force alone would not suffice. So there are certain root causes and contributing factors that I am not going to list, but are in the statement, that both Russia and the United States need to address as they think how to defeat terrorists not only in the Middle East, or containment, but also in their own countries.    Of the deep-rooted and structural causes, I would point out relative socioeconomic deprivation, historical grievances, poor quality of governance, and political instability are factors that facilitate this violence. I would point out the spread of violent ideologies and, primarily, the militant form of Salafia, or so-called ``Wahhabism,'' as Dagestani officials call it.    And finally, the third group of causes, motivational causes I would point out are the abuses of the population. If there is anything that creates grievances, it is the abuses of the population at the hands of authorities.    So let me conclude by saying that cooperation between the United States and Russia against terrorism in general, and ISIS and al-Qaeda in particular, will not only significantly advance international efforts to contain these organizations' expansion within and without Iraq and adjacent countries, but it can also help to stop the slide toward a new Cold War between the West and Russia in the wake of the Ukraine crisis, although these factors are not exactly--there is no avoiding it. I mean, the Ukrainian crisis will have to be resolved regardless, but that cooperation--let me repeat--will help to stop the slide toward a new Cold War.    Thank you.</t>
+  </si>
+  <si>
+    <t>Katz</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katz. Mr. Chairman, distinguished members, thank you so much for the invitation to speak to you today. I would like to address the Syrian aspect of this issue.    Unlike in Ukraine, where Moscow has openly declared that its motive for intervention and support for separatist forces is being undertaken to counter the West, Russian officials have characterized their support for the Assad regime in Syria as actually being in Western interests--even if Western governments do not quite seem to understand this--since it serves the common goal of combating the Islamic State.    Russian President Vladimir Putin recently described the Assad regime as an important ally in the fight against the Islamic State. ``It is evident,'' he stated recently, ``that without an active participation of the Syrian authorities and military, without participation of the Syrian army inside the territory, as the military say, in the fight against Islamic State, terrorists cannot be expelled from that country and from the region on the whole.''    Russian Foreign Minister Sergey Lavrov described the Assad regime as a crucial ally against Islamic State. He declared that, ``The Syrian President is the commander in chief of probably the most capable ground force fighting terrorism. To give up such an opportunity, ignore the capabilities of the Syrian army as a partner and ally in the fight against the Islamic State, means to sacrifice the entire region's security to some geopolitical moods and calculations.''    Now, while the West may not like Assad, Russian officials and commentators are saying his authoritarian regime is preferable to an even worse one that Islamic State would establish that would pose a real threat to Western, as well as Russian interests. Furthermore, Assad regime forces are needed in order to stop Islamic State from taking over more or even the rest of Syria. Western insistence that Assad must step down, then, is foolish since this would gravely weaken the forces fighting against Islamic State. The West, then, should work with Moscow and the Assad regime against the common threat and not against them.    This argument is based on the premise that the Assad regime is actively fighting against Islamic State. There have been numerous reports, though, that the Assad regime and the Islamic State have actually not been fighting with each other or not doing so very much. A widely quoted study by IHS Jane's Terrorism and Insurgency Center at the end of last year noted that the Assad regime's ``counterterrorism operations . . . skew heavily toward groups whose names aren't ISIS. Of 982 counterterrorism operations for the year, up through November 21, 2014, just 6 percent directly targeted ISIS.''    In February of this year, TIME magazine reported on a Sunni businessman with close ties to the Assad regime describing various forms of actual cooperation between the Assad regime and the Islamic State, including how the Assad regime buys oil from Islamic State-controlled oil facilities, how Syria's two main mobile phone operators provide service and send repair teams to IS-controlled areas, and how Damascus allows food shipment to the IS capital, Raqqa.    At the beginning of June 2015, U.S. Embassy Damascus accused the Syrian Government of providing air support to an advance by Islamic State militants against other opposition groups north of Aleppo.    In July, Turkish intelligence sources claimed that ``an agreement was made between the Assad regime and Islamic State to destroy the Free Syrian Army in the country's north.''    Now, why would the Assad regime not fight against the Islamic State and even cooperate with it? Both of them have an interest in weakening their common foes--other Syrian opposition groups being supported by Turkey, Saudi Arabia, Qatar, and others.    Moscow and Damascus, of course, vehemently deny that the Assad regime and the Islamic State are not fighting each other and are even cooperating against their common foes. The numerous reports that this is what is happening, as well as the compelling nature of the ``enemy of my enemy is my friend'' logic at work here, though, point to their credibility. And if these reports are true, then certain implications follow.    If Assad and the Islamic State are not really fighting each other, but the Assad regime is losing ground, then its weakening is due primarily to the non-Islamic State forces backed by Turkey and the Gulf Arabs.    Russian military support to the Assad regime is likely to be used primarily against those forces that are most threatening to Damascus--i.e., the Free Syrian Army, the al-Nusrah Front, and all of the others--and not against the Islamic State, which is less threatening to it.    Russian calls for the West to work with Moscow and Damascus in the fight against the Islamic State, then, are really intended to elicit Western acquiescence to increased Russian support for Assad regime efforts to combat its more threatening non-Islamic State opponents as well as to divide Western governments that fear the Islamic State more than the Assad regime, on the one hand, from Turkey and the Gulf Arab states, which are more focused on supporting the downfall of the Assad regime through supporting its non-Islamic State opponents on the other.    What all this suggests is that the recent increase in Russian military involvement in Syria is motivated much less by a desire to combat the Islamic State than by the desire to protect the Assad regime against its more active non-Islamic State opponents as well as to blunt the actions of Western and Middle Eastern actors aimed at supporting them.    Thank you.</t>
@@ -656,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,2021 +716,2376 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96819.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rohrabacher</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412186</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sires</t>
@@ -686,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,2373 +728,2560 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
